--- a/medicine/Enfance/Jasmine_Dubé/Jasmine_Dubé.xlsx
+++ b/medicine/Enfance/Jasmine_Dubé/Jasmine_Dubé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jasmine_Dub%C3%A9</t>
+          <t>Jasmine_Dubé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasmine Dubé, née à Amqui le 11 avril 1957, est une auteure, dramaturge et comédienne québécoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jasmine_Dub%C3%A9</t>
+          <t>Jasmine_Dubé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1957[1], Jasmine Dubé a étudié en lettres au Cégep de Matane[1], puis en interprétation à l'École nationale de théâtre[1],[2].
-Elle travaille au sein de plusieurs compagnies théâtrales avant de devenir la cofondatrice, avec Marc Pache, du Théâtre Bouches Décousues en 1986[3]. Elle en assure la direction artistique[4]. Elle est l'auteure de nombreuses pièces de théâtre Jeune Public[5]. Pour elle, le théâtre peut aider un enfant à grandir[4]. Dès sa première pièce, en 1985, elle ose évoquer dans son théâtre les sévices sexuels subis par des enfants,  pour encourager l’expression des enfants sur ce thème[1].
-Elle a écrit aussi des contes pour enfants[1], notamment L'Ourson qui voulait une Juliette (1997), Le Grand Nazaire (1999) et L'Enfant de la cheminée (2006), et des mini-romans tels que la série Nazaire[1]. 
-Elle a également collaboré à plusieurs séries télévisées pour la jeunesse de la télévision québécoise[1], tels que Passe-Partout, Télé-Pirate et Michou et Pilo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1957, Jasmine Dubé a étudié en lettres au Cégep de Matane, puis en interprétation à l'École nationale de théâtre,.
+Elle travaille au sein de plusieurs compagnies théâtrales avant de devenir la cofondatrice, avec Marc Pache, du Théâtre Bouches Décousues en 1986. Elle en assure la direction artistique. Elle est l'auteure de nombreuses pièces de théâtre Jeune Public. Pour elle, le théâtre peut aider un enfant à grandir. Dès sa première pièce, en 1985, elle ose évoquer dans son théâtre les sévices sexuels subis par des enfants,  pour encourager l’expression des enfants sur ce thème.
+Elle a écrit aussi des contes pour enfants, notamment L'Ourson qui voulait une Juliette (1997), Le Grand Nazaire (1999) et L'Enfant de la cheminée (2006), et des mini-romans tels que la série Nazaire. 
+Elle a également collaboré à plusieurs séries télévisées pour la jeunesse de la télévision québécoise, tels que Passe-Partout, Télé-Pirate et Michou et Pilo.
 De 1985 à 1991, elle a été responsable de la chronique de théâtre pour la revue Lurelu.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jasmine_Dub%C3%A9</t>
+          <t>Jasmine_Dubé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres théâtrales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1992 : Bouches décousues
 1992 : Petit Monstre
@@ -561,7 +577,7 @@
 2007 : Les Mauvaises Herbes
 2009 : Marguerite
 2010 : Ginkgo et la Jardinière
-2019 : Lascaux (coproduction le Théâtre Pupulus Mordicus)[1]
+2019 : Lascaux (coproduction le Théâtre Pupulus Mordicus)
 2019 : La Mère Merle en forêt (coproduction Samsara Théâtre)
 2020 : L'arche de Noémie (coproduction avec L'arrière Scène)</t>
         </is>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jasmine_Dub%C3%A9</t>
+          <t>Jasmine_Dubé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,28 +609,169 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Nazaire
-Fais un vœu, Nazaire! (1994)
+          <t>Série Nazaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fais un vœu, Nazaire! (1994)
 Nazaire et les Mousquetaires (1995)
 Les Deux Nazaire (1996)
 Tu n'es plus seul, Nazaire! (1997)
 Le Grand Nazaire (1999)
-Nazaire (2011)
-Série Elvis
-Elvis présente sa famille (2000)
+Nazaire (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jasmine_Dubé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Elvis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elvis présente sa famille (2000)
 Elvis fait des acrobaties (2000)
 Elvis se déguise (2001)
-Elvis aime danser (2001)
-Série La Petite Irène
-La Petite Irène de trèfle (2009)
+Elvis aime danser (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jasmine_Dubé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série La Petite Irène</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Petite Irène de trèfle (2009)
 La Petite Irène au nez rouge (2009)
-La Petite Irène de cœur (2012)
-Série Les Contes de Passe-Partout
-Le Petit Matin de Cannelle (1989)
+La Petite Irène de cœur (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jasmine_Dubé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Les Contes de Passe-Partout</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Petit Matin de Cannelle (1989)
 Pruneau en plongée sous-marine (1990)
-Cannelle et l'Horloge (1991)
-Autres contes
-Des livres et Zoé : Chou Bidou Woua (1988)
+Cannelle et l'Horloge (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jasmine_Dubé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres contes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Des livres et Zoé : Chou Bidou Woua (1988)
 La Tête de Line Hotte (1989)
 Au bain, capitaine ! (1989)
 L'horloge s'est arrêtée (1990)
@@ -628,71 +785,75 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jasmine_Dub%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jasmine_Dubé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Balado</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2020 : Norbert le petit chevreuil</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jasmine_Dub%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jasmine_Dubé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jasmine_Dub%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1993 - Finaliste au Prix du Gouverneur général, Petit Monstre
-1996 - Prix Arthur-Buies[1]
+1996 - Prix Arthur-Buies
 1997 - Finaliste au Prix du Gouverneur général, La Bonne Femme
-1998 - Prix Alvine-Bélisle, L'Ourson qui voulait une Juliette[6]
-1998 - La Renaissance française lui décerne la médaille du Rayonnement Culturel[1].
+1998 - Prix Alvine-Bélisle, L'Ourson qui voulait une Juliette
+1998 - La Renaissance française lui décerne la médaille du Rayonnement Culturel.
 1998 - Artquimédia lui décerne l’Agathe de distinction pour son rayonnement artistique.
 2000 - Finaliste au Prix du Gouverneur général, L'Arche de Noémie
-2010 - La ville de Amqui inaugure la bibliothèque Jasmine-Dubé[7]
-2013 - Récipiendaire du Prix Raymond-Plante pour son travail en littérature jeunesse[4].</t>
+2010 - La ville de Amqui inaugure la bibliothèque Jasmine-Dubé
+2013 - Récipiendaire du Prix Raymond-Plante pour son travail en littérature jeunesse.</t>
         </is>
       </c>
     </row>
